--- a/learn some stuff/other gsheets modules/fastest gsheets module.xlsx
+++ b/learn some stuff/other gsheets modules/fastest gsheets module.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,27 +437,86 @@
           <t>pygsheets</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>gspread import time</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ezsheets import time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>pygsheets import time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="B2" t="n">
-        <v>7.77</v>
+        <v>7.17</v>
       </c>
       <c r="C2" t="n">
-        <v>30.57</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>1.48</v>
       </c>
-      <c r="B3" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="C3" t="n">
-        <v>10.75</v>
+      <c r="B6" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="B9" t="n">
+        <v>46.87</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.1</v>
       </c>
     </row>
   </sheetData>
